--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEVADA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEVADA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1388"/>
+  <dimension ref="A1:D1382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C56">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C98">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C101">
@@ -1810,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="D109">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="110">
@@ -1946,7 +1946,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C120">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C121">
@@ -2011,7 +2011,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C125">
@@ -2398,7 +2398,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C154">
@@ -2424,7 +2424,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C160">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C175">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C189">
@@ -2896,7 +2896,7 @@
         <v>15</v>
       </c>
       <c r="D191">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="192">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C199">
@@ -3078,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="D205">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="206">
@@ -3097,12 +3097,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C207">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C215">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C220">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C223">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C229">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C233">
@@ -3538,7 +3538,7 @@
         <v>15</v>
       </c>
       <c r="D240">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="241">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C245">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C257">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C267">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C268">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C275">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C279">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C280">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C291">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C292">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C293">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C299">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C303">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C311">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C316">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C318">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C319">
@@ -4589,7 +4589,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C321">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C325">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C334">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C339">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C345">
@@ -4958,20 +4958,20 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C349">
         <v>15</v>
       </c>
       <c r="D349">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C350">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C355">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C360">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C361">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C364">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C366">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C384">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C386">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C389">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C390">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C404">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C409">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C412">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C415">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C418">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C422">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C426">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C427">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C428">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C435">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C438">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C442">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C447">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C448">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C449">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C452">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C453">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C459">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C464">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C467">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C469">
@@ -6652,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="D478">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="479">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C481">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C482">
@@ -6769,7 +6769,7 @@
         <v>15</v>
       </c>
       <c r="D487">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="488">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C491">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C498">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C499">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C500">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C504">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C510">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C511">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C518">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C523">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C524">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C526">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C527">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C529">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C531">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C532">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C533">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C534">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C538">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C541">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C546">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C550">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C563">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C567">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C568">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C571">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C572">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C573">
@@ -8184,7 +8184,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C596">
@@ -8210,7 +8210,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C598">
@@ -8711,7 +8711,7 @@
         <v>15</v>
       </c>
       <c r="D636">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="637">
@@ -9029,7 +9029,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C661">
@@ -9450,7 +9450,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C693">
@@ -9489,7 +9489,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C696">
@@ -9567,7 +9567,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C702">
@@ -9613,7 +9613,7 @@
         <v>15</v>
       </c>
       <c r="D705">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="706">
@@ -9645,7 +9645,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C708">
@@ -9683,7 +9683,7 @@
         <v>15</v>
       </c>
       <c r="D710">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="711">
@@ -9702,7 +9702,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C712">
@@ -9715,7 +9715,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C713">
@@ -9767,7 +9767,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C717">
@@ -9858,7 +9858,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C724">
@@ -9980,7 +9980,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C733">
@@ -10019,7 +10019,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C736">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C739">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C745">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C748">
@@ -10206,20 +10206,20 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C750">
         <v>15</v>
       </c>
       <c r="D750">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C754">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C761">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C763">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C764">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C769">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C771">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C778">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C792">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C795">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C800">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C835">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C845">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C851">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C886">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C887">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C891">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C893">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C897">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C900">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C901">
@@ -12447,7 +12447,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C922">
@@ -12519,7 +12519,7 @@
         <v>15</v>
       </c>
       <c r="D927">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="928">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C931">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C937">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C940">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C950">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C951">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C957">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C959">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C966">
@@ -13032,7 +13032,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C967">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C975">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C992">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C995">
@@ -13409,7 +13409,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C996">
@@ -13474,7 +13474,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1001">
@@ -13578,7 +13578,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1009">
@@ -13591,7 +13591,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1010">
@@ -13643,7 +13643,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1014">
@@ -13669,7 +13669,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1016">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1022">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1031">
@@ -13916,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1035">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1049">
@@ -14116,7 +14116,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1050">
@@ -14168,7 +14168,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1054">
@@ -14207,7 +14207,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1057">
@@ -14246,7 +14246,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1060">
@@ -14386,7 +14386,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1070">
@@ -14412,7 +14412,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1072">
@@ -14503,7 +14503,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1079">
@@ -14568,7 +14568,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1084">
@@ -14646,7 +14646,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1090">
@@ -14659,7 +14659,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1091">
@@ -14672,7 +14672,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1092">
@@ -14975,7 +14975,7 @@
         <v>15</v>
       </c>
       <c r="D1114">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="1115">
@@ -15105,7 +15105,7 @@
         <v>15</v>
       </c>
       <c r="D1124">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="1125">
@@ -15254,7 +15254,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1136">
@@ -15545,7 +15545,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1158">
@@ -15823,7 +15823,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1179">
@@ -15893,7 +15893,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1184">
@@ -15945,7 +15945,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1188">
@@ -16010,7 +16010,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1193">
@@ -16036,7 +16036,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1195">
@@ -16075,7 +16075,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1198">
@@ -16088,7 +16088,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1199">
@@ -16101,7 +16101,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1200">
@@ -16288,7 +16288,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1214">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1220">
@@ -16561,7 +16561,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1235">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1236">
@@ -16717,7 +16717,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1247">
@@ -16730,7 +16730,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1248">
@@ -16769,7 +16769,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1251">
@@ -16782,7 +16782,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1252">
@@ -16912,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1262">
@@ -16958,13 +16958,13 @@
         <v>15</v>
       </c>
       <c r="D1265">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1266">
@@ -16990,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1268">
@@ -17120,7 +17120,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1278">
@@ -17133,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1279">
@@ -17185,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1283">
@@ -17289,7 +17289,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1291">
@@ -17328,7 +17328,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1294">
@@ -17595,7 +17595,7 @@
         <v>15</v>
       </c>
       <c r="D1314">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="1315">
@@ -17891,7 +17891,7 @@
         <v>15</v>
       </c>
       <c r="D1336">
-        <v>0.0009566326530612245</v>
+        <v>0.0009566326530612244</v>
       </c>
     </row>
     <row r="1337">
@@ -17962,7 +17962,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1342">
@@ -17988,7 +17988,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1344">
@@ -18170,7 +18170,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1358">
@@ -18222,7 +18222,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1362">
@@ -18235,7 +18235,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1363">
@@ -18248,7 +18248,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1364">
@@ -18378,7 +18378,7 @@
     <row r="1374">
       <c r="B1374" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1374">
@@ -18391,7 +18391,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1375">
@@ -18417,7 +18417,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1377">
@@ -18490,41 +18490,6 @@
       </c>
       <c r="D1382">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
